--- a/app/src/main/res/raw/prev_pres.xlsx
+++ b/app/src/main/res/raw/prev_pres.xlsx
@@ -5,39 +5,232 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sundar Pichai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditorium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KD 314</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Avadhesh Kumar Nigam</t>
+  </si>
+  <si>
+    <t>Kul Bhushan Ohri</t>
+  </si>
+  <si>
+    <t>Shashi Kumar Singhania</t>
+  </si>
+  <si>
+    <t>Santosh Kumar Gupta</t>
+  </si>
+  <si>
+    <t>Ashok Kumar Chandra</t>
+  </si>
+  <si>
+    <t>Prabhakar Goel</t>
+  </si>
+  <si>
+    <t>Sartaj Kumar Sahni</t>
+  </si>
+  <si>
+    <t>Dhiraj Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Sudershan Kumar Gupta</t>
+  </si>
+  <si>
+    <t>Aditya Kumar Gupta</t>
+  </si>
+  <si>
+    <t>Anupam Khanna</t>
+  </si>
+  <si>
+    <t>Sudhir Vyas</t>
+  </si>
+  <si>
+    <t>Sanjay Kumar Bose</t>
+  </si>
+  <si>
+    <t>Suresh Kumar Lodha</t>
+  </si>
+  <si>
+    <t>Anurag Kumar</t>
+  </si>
+  <si>
+    <t>Pingali Keshav Kumar</t>
+  </si>
+  <si>
+    <t>Christopher J. J. Flores</t>
+  </si>
+  <si>
+    <t>Raghvendra Sahai</t>
+  </si>
+  <si>
+    <t>Manvendra K. Dubey</t>
+  </si>
+  <si>
+    <t>Sanjiva Keshav Lele</t>
+  </si>
+  <si>
+    <t>Sanjay Kasturia</t>
+  </si>
+  <si>
+    <t>Amod Arvind Ogale</t>
+  </si>
+  <si>
+    <t>Gopal Raghavan</t>
+  </si>
+  <si>
+    <t>G. N. Srinivasa Prasanna</t>
+  </si>
+  <si>
+    <t>Alok Tandon</t>
+  </si>
+  <si>
+    <t>Upmanyu Madhow</t>
+  </si>
+  <si>
+    <t>Mani Bhushan Srivastava</t>
+  </si>
+  <si>
+    <t>Rajesh Kumar Pankaj</t>
+  </si>
+  <si>
+    <t>Rajiv S. Alur</t>
+  </si>
+  <si>
+    <t>Dinesh Chandra Verma</t>
+  </si>
+  <si>
+    <t>Ashish Gupta</t>
+  </si>
+  <si>
+    <t>Vineet Gupta</t>
+  </si>
+  <si>
+    <t>V. Ramesh</t>
+  </si>
+  <si>
+    <t>Vivek Bhatt</t>
+  </si>
+  <si>
+    <t>Sudershan Chawathe</t>
+  </si>
+  <si>
+    <t>Venkat Krishnamurthy</t>
+  </si>
+  <si>
+    <t>Garud N. R.</t>
+  </si>
+  <si>
+    <t>Arvind Rajaraman</t>
+  </si>
+  <si>
+    <t>Alok Agrawal</t>
+  </si>
+  <si>
+    <t>Amit Mehrotra</t>
+  </si>
+  <si>
+    <t>Khurram Sajid</t>
+  </si>
+  <si>
+    <t>Shaz Qadeer</t>
+  </si>
+  <si>
+    <t>Shiraz Naval Minwalla</t>
+  </si>
+  <si>
+    <t>Gokul Rajaram</t>
+  </si>
+  <si>
+    <t>Sudipto Guha</t>
+  </si>
+  <si>
+    <t>Anupam Gupta</t>
+  </si>
+  <si>
+    <t>Geeta Tarachandani</t>
+  </si>
+  <si>
+    <t>Saurabh Tripathi</t>
+  </si>
+  <si>
+    <t>Sudipta Sengupta</t>
+  </si>
+  <si>
+    <t>Rupak Majumdar</t>
+  </si>
+  <si>
+    <t>S. Viswanath</t>
+  </si>
+  <si>
+    <t>Sumit Gulwani</t>
+  </si>
+  <si>
+    <t>Sourav Chatterji</t>
+  </si>
+  <si>
+    <t>Utkarsh Hriday Srivastava</t>
+  </si>
+  <si>
+    <t>Shaunak Sen</t>
+  </si>
+  <si>
+    <t>Yogeshwer Sharma</t>
+  </si>
+  <si>
+    <t>Madhur Tulsiani</t>
+  </si>
+  <si>
+    <t>Abhinav Agarwal</t>
+  </si>
+  <si>
+    <t>Subhojoy Gupta</t>
+  </si>
+  <si>
+    <t>Ravishankar Sundararaman</t>
+  </si>
+  <si>
+    <t>Anindya De</t>
+  </si>
+  <si>
+    <t>Piyush Srivstava</t>
+  </si>
+  <si>
+    <t>Nerella Tejaswi Venu Madhav</t>
+  </si>
+  <si>
+    <t>Mohit Mittal</t>
+  </si>
+  <si>
+    <t>Shubhayu Chatterjee</t>
+  </si>
+  <si>
+    <t>Ankit Kumar</t>
+  </si>
+  <si>
+    <t>Shubham Tulsiani</t>
+  </si>
+  <si>
+    <t>Nitish Kumar srivastava</t>
+  </si>
+  <si>
+    <t>Karan Singh</t>
+  </si>
+  <si>
+    <t>Ayush Sekhari</t>
   </si>
 </sst>
 </file>
@@ -45,7 +238,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
   <fonts count="4">
@@ -53,7 +246,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -118,7 +310,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -139,22 +331,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.6836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.8979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.24489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.24489795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="256" min="9" style="0" width="9.24489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -162,58 +359,587 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>1987</v>
+        <v>1966</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2009</v>
+        <v>1967</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>2355</v>
+        <v>1968</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>1221</v>
+        <v>1969</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1"/>
     </row>
+    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65536" customFormat="false" ht="12.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>